--- a/excel/input.xlsx
+++ b/excel/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\KUBSU\deansGenerator4main\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB042D8F-AAA2-4516-8501-2709175E0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E534927-F663-4AA7-95E9-FAB31968BD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>,</t>
   </si>
@@ -54,22 +54,16 @@
     <t>Примечание</t>
   </si>
   <si>
-    <t>Бюджет</t>
-  </si>
-  <si>
     <t>ФИО (полностью) в дательном падеже Иванову Петру Васильевичу</t>
   </si>
   <si>
-    <t>08.05.2004</t>
-  </si>
-  <si>
-    <t>19.03.2024 20:48:55</t>
-  </si>
-  <si>
-    <t>Гудимову Максиму Сергеевичу</t>
-  </si>
-  <si>
-    <t>Цветков Кирилл Александрович</t>
+    <t>Дроздову Николаю Витальевичу</t>
+  </si>
+  <si>
+    <t>25.04.2003</t>
+  </si>
+  <si>
+    <t>бюджет</t>
   </si>
 </sst>
 </file>
@@ -79,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -101,19 +95,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,26 +144,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -403,13 +372,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -418,7 +387,7 @@
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" customWidth="1"/>
@@ -456,712 +425,228 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7">
+        <v>123</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>35</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="8">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8">
-        <v>46</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7"/>
+      <c r="H2" s="7">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8">
-        <v>4</v>
-      </c>
-      <c r="E3" s="8">
-        <v>45</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="10"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="10"/>
-    </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="8"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="8"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1201,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
